--- a/Excel/Hasil_Pengujian_Map_1_128_avg_length.xlsx
+++ b/Excel/Hasil_Pengujian_Map_1_128_avg_length.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SEMHAS\TA_Python_Server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SEMHAS\TA_Python_Server\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6E18A9-25DF-4482-B3F1-9CFECDAC141A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6FAABF-CAAD-4916-88C0-BF5BDBCB8F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Waktu Pencarian" sheetId="1" r:id="rId1"/>
@@ -610,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -644,163 +644,163 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>3.7369999999999998E-4</v>
+        <v>1.1236E-3</v>
       </c>
       <c r="D2">
-        <v>1.0280000000000001E-3</v>
+        <v>2.9991000000000002E-3</v>
       </c>
       <c r="E2">
-        <v>3.0896000000000001E-3</v>
+        <v>1.9829099999999999E-2</v>
       </c>
       <c r="F2">
-        <v>1.1626600000000001E-2</v>
+        <v>0.13352430000000001</v>
       </c>
       <c r="G2">
-        <v>4.0294750000000002E-3</v>
+        <v>3.9369024999999988E-2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>3.5599999999999998E-4</v>
+        <v>3.1100000000000002E-4</v>
       </c>
       <c r="D3">
-        <v>1.0858E-3</v>
+        <v>1.3225999999999999E-3</v>
       </c>
       <c r="E3">
-        <v>3.2106000000000001E-3</v>
+        <v>5.3155999999999993E-3</v>
       </c>
       <c r="F3">
-        <v>1.15403E-2</v>
+        <v>2.27393E-2</v>
       </c>
       <c r="G3">
-        <v>4.0481749999999993E-3</v>
+        <v>7.422124999999999E-3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>4.171E-4</v>
+        <v>4.5609999999999997E-4</v>
       </c>
       <c r="D4">
-        <v>1.0541999999999999E-3</v>
+        <v>2.1824000000000001E-3</v>
       </c>
       <c r="E4">
-        <v>3.1202000000000001E-3</v>
+        <v>1.7498E-2</v>
       </c>
       <c r="F4">
-        <v>1.1744299999999999E-2</v>
+        <v>0.19102839999999999</v>
       </c>
       <c r="G4">
-        <v>4.0839500000000003E-3</v>
+        <v>5.2791224999999997E-2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>3.9550000000000002E-4</v>
+        <v>4.4000000000000002E-4</v>
       </c>
       <c r="D5">
-        <v>1.1517000000000001E-3</v>
+        <v>2.4426000000000001E-3</v>
       </c>
       <c r="E5">
-        <v>3.2996000000000002E-3</v>
+        <v>1.6678800000000001E-2</v>
       </c>
       <c r="F5">
-        <v>1.16206E-2</v>
+        <v>0.1170558</v>
       </c>
       <c r="G5">
-        <v>4.11685E-3</v>
+        <v>3.4154299999999999E-2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>4.8809999999999999E-4</v>
+        <v>3.6890000000000002E-4</v>
       </c>
       <c r="D6">
-        <v>1.0491000000000001E-3</v>
+        <v>1.1643999999999999E-3</v>
       </c>
       <c r="E6">
-        <v>3.1581999999999999E-3</v>
+        <v>3.6279000000000012E-3</v>
       </c>
       <c r="F6">
-        <v>1.19513E-2</v>
+        <v>1.2914699999999999E-2</v>
       </c>
       <c r="G6">
-        <v>4.1616750000000001E-3</v>
+        <v>4.5189750000000006E-3</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>3.9219999999999999E-4</v>
+        <v>8.849000000000001E-4</v>
       </c>
       <c r="D7">
-        <v>1.1211000000000001E-3</v>
+        <v>3.1291000000000001E-3</v>
       </c>
       <c r="E7">
-        <v>3.1881000000000001E-3</v>
+        <v>2.0131699999999999E-2</v>
       </c>
       <c r="F7">
-        <v>1.21168E-2</v>
+        <v>0.1351106</v>
       </c>
       <c r="G7">
-        <v>4.2045499999999996E-3</v>
+        <v>3.9814074999999997E-2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>4.6840000000000011E-4</v>
+        <v>5.7019999999999998E-4</v>
       </c>
       <c r="D8">
-        <v>1.1501E-3</v>
+        <v>2.8728999999999998E-3</v>
       </c>
       <c r="E8">
-        <v>3.3308000000000001E-3</v>
+        <v>1.8960399999999999E-2</v>
       </c>
       <c r="F8">
-        <v>1.23204E-2</v>
+        <v>0.12743009999999999</v>
       </c>
       <c r="G8">
-        <v>4.3174249999999997E-3</v>
+        <v>3.7458400000000003E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -808,206 +808,206 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9">
-        <v>3.3960000000000001E-4</v>
+        <v>3.7369999999999998E-4</v>
       </c>
       <c r="D9">
-        <v>9.6450000000000008E-4</v>
+        <v>1.0280000000000001E-3</v>
       </c>
       <c r="E9">
-        <v>3.3205000000000001E-3</v>
+        <v>3.0896000000000001E-3</v>
       </c>
       <c r="F9">
-        <v>1.26613E-2</v>
+        <v>1.1626600000000001E-2</v>
       </c>
       <c r="G9">
-        <v>4.321475E-3</v>
+        <v>4.0294750000000002E-3</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C10">
-        <v>3.7070000000000001E-4</v>
+        <v>3.5599999999999998E-4</v>
       </c>
       <c r="D10">
-        <v>1.0401E-3</v>
+        <v>1.0858E-3</v>
       </c>
       <c r="E10">
-        <v>3.3566999999999998E-3</v>
+        <v>3.2106000000000001E-3</v>
       </c>
       <c r="F10">
-        <v>1.27814E-2</v>
+        <v>1.15403E-2</v>
       </c>
       <c r="G10">
-        <v>4.3872250000000007E-3</v>
+        <v>4.0481749999999993E-3</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="C11">
-        <v>4.9890000000000004E-4</v>
+        <v>3.3960000000000001E-4</v>
       </c>
       <c r="D11">
-        <v>1.2258E-3</v>
+        <v>9.6450000000000008E-4</v>
       </c>
       <c r="E11">
-        <v>3.4207E-3</v>
+        <v>3.3205000000000001E-3</v>
       </c>
       <c r="F11">
-        <v>1.24092E-2</v>
+        <v>1.26613E-2</v>
       </c>
       <c r="G11">
-        <v>4.38865E-3</v>
+        <v>4.321475E-3</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="C12">
-        <v>3.8400000000000001E-4</v>
+        <v>4.1780000000000002E-4</v>
       </c>
       <c r="D12">
-        <v>1.0495000000000001E-3</v>
+        <v>1.2064000000000001E-3</v>
       </c>
       <c r="E12">
-        <v>3.3790999999999999E-3</v>
+        <v>3.6258000000000002E-3</v>
       </c>
       <c r="F12">
-        <v>1.2845799999999999E-2</v>
+        <v>1.31725E-2</v>
       </c>
       <c r="G12">
-        <v>4.4146000000000003E-3</v>
+        <v>4.6056249999999986E-3</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="C13">
-        <v>3.4519999999999999E-4</v>
+        <v>3.8640000000000001E-4</v>
       </c>
       <c r="D13">
-        <v>9.722E-4</v>
+        <v>1.1668E-3</v>
       </c>
       <c r="E13">
-        <v>3.3387E-3</v>
+        <v>3.8271999999999998E-3</v>
       </c>
       <c r="F13">
-        <v>1.3060499999999999E-2</v>
+        <v>1.4337900000000001E-2</v>
       </c>
       <c r="G13">
-        <v>4.4291499999999998E-3</v>
+        <v>4.9295750000000003E-3</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="C14">
-        <v>3.7419999999999999E-4</v>
+        <v>3.5379999999999998E-4</v>
       </c>
       <c r="D14">
-        <v>1.1276000000000001E-3</v>
+        <v>1.4894999999999999E-3</v>
       </c>
       <c r="E14">
-        <v>3.0577E-3</v>
+        <v>5.8805000000000003E-3</v>
       </c>
       <c r="F14">
-        <v>1.34555E-2</v>
+        <v>2.40112E-2</v>
       </c>
       <c r="G14">
-        <v>4.5037499999999999E-3</v>
+        <v>7.9337499999999998E-3</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C15">
-        <v>3.5869999999999999E-4</v>
+        <v>3.589E-4</v>
       </c>
       <c r="D15">
-        <v>1.0958999999999999E-3</v>
+        <v>1.4187E-3</v>
       </c>
       <c r="E15">
-        <v>3.0596E-3</v>
+        <v>5.6354999999999999E-3</v>
       </c>
       <c r="F15">
-        <v>1.35046E-2</v>
+        <v>2.4407100000000001E-2</v>
       </c>
       <c r="G15">
-        <v>4.5047000000000004E-3</v>
+        <v>7.95505E-3</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C16">
-        <v>3.6890000000000002E-4</v>
+        <v>3.433E-4</v>
       </c>
       <c r="D16">
-        <v>1.1643999999999999E-3</v>
+        <v>1.4916E-3</v>
       </c>
       <c r="E16">
-        <v>3.6279000000000012E-3</v>
+        <v>6.460200000000001E-3</v>
       </c>
       <c r="F16">
-        <v>1.2914699999999999E-2</v>
+        <v>2.7156400000000001E-2</v>
       </c>
       <c r="G16">
-        <v>4.5189750000000006E-3</v>
+        <v>8.8628749999999992E-3</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="C17">
-        <v>3.948E-4</v>
+        <v>5.0350000000000004E-4</v>
       </c>
       <c r="D17">
-        <v>1.1597999999999999E-3</v>
+        <v>1.8573999999999999E-3</v>
       </c>
       <c r="E17">
-        <v>3.127E-3</v>
+        <v>9.3608000000000007E-3</v>
       </c>
       <c r="F17">
-        <v>1.3702000000000001E-2</v>
+        <v>5.6195799999999997E-2</v>
       </c>
       <c r="G17">
-        <v>4.5959E-3</v>
+        <v>1.6979375000000001E-2</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1015,114 +1015,114 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C18">
-        <v>4.1780000000000002E-4</v>
+        <v>5.6109999999999992E-4</v>
       </c>
       <c r="D18">
-        <v>1.2064000000000001E-3</v>
+        <v>3.5964999999999999E-3</v>
       </c>
       <c r="E18">
-        <v>3.6258000000000002E-3</v>
+        <v>1.69202E-2</v>
       </c>
       <c r="F18">
-        <v>1.31725E-2</v>
+        <v>0.1119938</v>
       </c>
       <c r="G18">
-        <v>4.6056249999999986E-3</v>
+        <v>3.3267900000000003E-2</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="C19">
-        <v>4.1919999999999989E-4</v>
+        <v>4.7080000000000011E-4</v>
       </c>
       <c r="D19">
-        <v>1.2643999999999999E-3</v>
+        <v>2.542E-3</v>
       </c>
       <c r="E19">
-        <v>3.2044999999999999E-3</v>
+        <v>1.7043900000000001E-2</v>
       </c>
       <c r="F19">
-        <v>1.3611E-2</v>
+        <v>0.1167687</v>
       </c>
       <c r="G19">
-        <v>4.6247750000000002E-3</v>
+        <v>3.4206350000000003E-2</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="C20">
-        <v>4.0709999999999997E-4</v>
+        <v>5.9699999999999998E-4</v>
       </c>
       <c r="D20">
-        <v>1.5669E-3</v>
+        <v>2.9894000000000001E-3</v>
       </c>
       <c r="E20">
-        <v>3.8625E-3</v>
+        <v>1.92465E-2</v>
       </c>
       <c r="F20">
-        <v>1.3352899999999999E-2</v>
+        <v>0.12859809999999999</v>
       </c>
       <c r="G20">
-        <v>4.7973499999999997E-3</v>
+        <v>3.7857750000000003E-2</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="C21">
-        <v>4.5389999999999997E-4</v>
+        <v>5.5060000000000005E-4</v>
       </c>
       <c r="D21">
-        <v>1.3718999999999999E-3</v>
+        <v>2.2628000000000001E-3</v>
       </c>
       <c r="E21">
-        <v>3.9084000000000002E-3</v>
+        <v>1.7635700000000001E-2</v>
       </c>
       <c r="F21">
-        <v>1.35453E-2</v>
+        <v>0.17792839999999999</v>
       </c>
       <c r="G21">
-        <v>4.8198750000000004E-3</v>
+        <v>4.9594375000000003E-2</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="C22">
-        <v>4.0759999999999999E-4</v>
+        <v>5.4569999999999998E-4</v>
       </c>
       <c r="D22">
-        <v>1.2398999999999999E-3</v>
+        <v>2.3205000000000001E-3</v>
       </c>
       <c r="E22">
-        <v>3.8522000000000001E-3</v>
+        <v>1.78566E-2</v>
       </c>
       <c r="F22">
-        <v>1.4187200000000001E-2</v>
+        <v>0.1916562</v>
       </c>
       <c r="G22">
-        <v>4.9217250000000001E-3</v>
+        <v>5.3094750000000003E-2</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1130,22 +1130,22 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C23">
-        <v>3.8640000000000001E-4</v>
+        <v>5.3239999999999993E-4</v>
       </c>
       <c r="D23">
-        <v>1.1668E-3</v>
+        <v>2.9072E-3</v>
       </c>
       <c r="E23">
-        <v>3.8271999999999998E-3</v>
+        <v>2.27762E-2</v>
       </c>
       <c r="F23">
-        <v>1.4337900000000001E-2</v>
+        <v>0.22364749999999989</v>
       </c>
       <c r="G23">
-        <v>4.9295750000000003E-3</v>
+        <v>6.2465824999999989E-2</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1153,183 +1153,183 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C24">
-        <v>4.1399999999999998E-4</v>
+        <v>4.171E-4</v>
       </c>
       <c r="D24">
-        <v>1.2409999999999999E-3</v>
+        <v>1.0541999999999999E-3</v>
       </c>
       <c r="E24">
-        <v>3.8787000000000001E-3</v>
+        <v>3.1202000000000001E-3</v>
       </c>
       <c r="F24">
-        <v>1.4616799999999999E-2</v>
+        <v>1.1744299999999999E-2</v>
       </c>
       <c r="G24">
-        <v>5.0376249999999996E-3</v>
+        <v>4.0839500000000003E-3</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="C25">
-        <v>4.5800000000000002E-4</v>
+        <v>3.9550000000000002E-4</v>
       </c>
       <c r="D25">
-        <v>1.4208000000000001E-3</v>
+        <v>1.1517000000000001E-3</v>
       </c>
       <c r="E25">
-        <v>4.2367999999999998E-3</v>
+        <v>3.2996000000000002E-3</v>
       </c>
       <c r="F25">
-        <v>1.41496E-2</v>
+        <v>1.16206E-2</v>
       </c>
       <c r="G25">
-        <v>5.0663000000000001E-3</v>
+        <v>4.11685E-3</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C26">
-        <v>5.4619999999999994E-4</v>
+        <v>4.8809999999999999E-4</v>
       </c>
       <c r="D26">
-        <v>1.3630999999999999E-3</v>
+        <v>1.0491000000000001E-3</v>
       </c>
       <c r="E26">
-        <v>3.3584000000000001E-3</v>
+        <v>3.1581999999999999E-3</v>
       </c>
       <c r="F26">
-        <v>1.54445E-2</v>
+        <v>1.19513E-2</v>
       </c>
       <c r="G26">
-        <v>5.1780500000000009E-3</v>
+        <v>4.1616750000000001E-3</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="C27">
-        <v>5.0319999999999998E-4</v>
+        <v>4.6840000000000011E-4</v>
       </c>
       <c r="D27">
-        <v>1.5150000000000001E-3</v>
+        <v>1.1501E-3</v>
       </c>
       <c r="E27">
-        <v>4.3627999999999991E-3</v>
+        <v>3.3308000000000001E-3</v>
       </c>
       <c r="F27">
-        <v>1.43447E-2</v>
+        <v>1.23204E-2</v>
       </c>
       <c r="G27">
-        <v>5.1814249999999999E-3</v>
+        <v>4.3174249999999997E-3</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C28">
-        <v>1.0101000000000001E-3</v>
+        <v>3.7070000000000001E-4</v>
       </c>
       <c r="D28">
-        <v>1.4361000000000001E-3</v>
+        <v>1.0401E-3</v>
       </c>
       <c r="E28">
-        <v>3.5412999999999998E-3</v>
+        <v>3.3566999999999998E-3</v>
       </c>
       <c r="F28">
-        <v>1.4760799999999999E-2</v>
+        <v>1.27814E-2</v>
       </c>
       <c r="G28">
-        <v>5.1870749999999993E-3</v>
+        <v>4.3872250000000007E-3</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="C29">
-        <v>4.4729999999999998E-4</v>
+        <v>3.4519999999999999E-4</v>
       </c>
       <c r="D29">
-        <v>1.2553E-3</v>
+        <v>9.722E-4</v>
       </c>
       <c r="E29">
-        <v>4.8726999999999989E-3</v>
+        <v>3.3387E-3</v>
       </c>
       <c r="F29">
-        <v>1.4400700000000001E-2</v>
+        <v>1.3060499999999999E-2</v>
       </c>
       <c r="G29">
-        <v>5.2440000000000004E-3</v>
+        <v>4.4291499999999998E-3</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="C30">
-        <v>3.9300000000000001E-4</v>
+        <v>3.5869999999999999E-4</v>
       </c>
       <c r="D30">
-        <v>1.5165000000000001E-3</v>
+        <v>1.0958999999999999E-3</v>
       </c>
       <c r="E30">
-        <v>4.4889999999999999E-3</v>
+        <v>3.0596E-3</v>
       </c>
       <c r="F30">
-        <v>2.04254E-2</v>
+        <v>1.35046E-2</v>
       </c>
       <c r="G30">
-        <v>6.7059749999999986E-3</v>
+        <v>4.5047000000000004E-3</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C31">
-        <v>4.8509999999999992E-4</v>
+        <v>4.0759999999999999E-4</v>
       </c>
       <c r="D31">
-        <v>1.5872E-3</v>
+        <v>1.2398999999999999E-3</v>
       </c>
       <c r="E31">
-        <v>4.4700999999999994E-3</v>
+        <v>3.8522000000000001E-3</v>
       </c>
       <c r="F31">
-        <v>2.0338999999999999E-2</v>
+        <v>1.4187200000000001E-2</v>
       </c>
       <c r="G31">
-        <v>6.7203499999999999E-3</v>
+        <v>4.9217250000000001E-3</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -1337,114 +1337,114 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C32">
-        <v>3.9829999999999998E-4</v>
+        <v>4.1399999999999998E-4</v>
       </c>
       <c r="D32">
-        <v>1.2087000000000001E-3</v>
+        <v>1.2409999999999999E-3</v>
       </c>
       <c r="E32">
-        <v>4.7145000000000008E-3</v>
+        <v>3.8787000000000001E-3</v>
       </c>
       <c r="F32">
-        <v>2.0745400000000001E-2</v>
+        <v>1.4616799999999999E-2</v>
       </c>
       <c r="G32">
-        <v>6.7667250000000012E-3</v>
+        <v>5.0376249999999996E-3</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C33">
-        <v>4.3189999999999998E-4</v>
+        <v>3.9829999999999998E-4</v>
       </c>
       <c r="D33">
-        <v>1.2756E-3</v>
+        <v>1.2087000000000001E-3</v>
       </c>
       <c r="E33">
-        <v>4.7615000000000001E-3</v>
+        <v>4.7145000000000008E-3</v>
       </c>
       <c r="F33">
-        <v>2.07093E-2</v>
+        <v>2.0745400000000001E-2</v>
       </c>
       <c r="G33">
-        <v>6.7945749999999989E-3</v>
+        <v>6.7667250000000012E-3</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C34">
-        <v>3.1100000000000002E-4</v>
+        <v>4.0729999999999998E-4</v>
       </c>
       <c r="D34">
-        <v>1.3225999999999999E-3</v>
+        <v>1.6015999999999999E-3</v>
       </c>
       <c r="E34">
-        <v>5.3155999999999993E-3</v>
+        <v>6.2082999999999999E-3</v>
       </c>
       <c r="F34">
-        <v>2.27393E-2</v>
+        <v>2.4888899999999999E-2</v>
       </c>
       <c r="G34">
-        <v>7.422124999999999E-3</v>
+        <v>8.2765249999999999E-3</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C35">
-        <v>3.5379999999999998E-4</v>
+        <v>3.9589999999999997E-4</v>
       </c>
       <c r="D35">
-        <v>1.4894999999999999E-3</v>
+        <v>1.6077999999999999E-3</v>
       </c>
       <c r="E35">
-        <v>5.8805000000000003E-3</v>
+        <v>6.8584000000000006E-3</v>
       </c>
       <c r="F35">
-        <v>2.40112E-2</v>
+        <v>2.8140700000000001E-2</v>
       </c>
       <c r="G35">
-        <v>7.9337499999999998E-3</v>
+        <v>9.2507000000000006E-3</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C36">
-        <v>3.589E-4</v>
+        <v>4.0220000000000002E-4</v>
       </c>
       <c r="D36">
-        <v>1.4187E-3</v>
+        <v>1.6431E-3</v>
       </c>
       <c r="E36">
-        <v>5.6354999999999999E-3</v>
+        <v>6.7273000000000003E-3</v>
       </c>
       <c r="F36">
-        <v>2.4407100000000001E-2</v>
+        <v>2.8264299999999999E-2</v>
       </c>
       <c r="G36">
-        <v>7.95505E-3</v>
+        <v>9.2592249999999994E-3</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -1452,45 +1452,45 @@
         <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C37">
-        <v>4.0729999999999998E-4</v>
+        <v>5.4239999999999996E-4</v>
       </c>
       <c r="D37">
-        <v>1.6015999999999999E-3</v>
+        <v>1.9406E-3</v>
       </c>
       <c r="E37">
-        <v>6.2082999999999999E-3</v>
+        <v>9.6349000000000001E-3</v>
       </c>
       <c r="F37">
-        <v>2.4888899999999999E-2</v>
+        <v>5.7832700000000001E-2</v>
       </c>
       <c r="G37">
-        <v>8.2765249999999999E-3</v>
+        <v>1.748765E-2</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C38">
-        <v>3.433E-4</v>
+        <v>5.2340000000000004E-4</v>
       </c>
       <c r="D38">
-        <v>1.4916E-3</v>
+        <v>2.0385999999999998E-3</v>
       </c>
       <c r="E38">
-        <v>6.460200000000001E-3</v>
+        <v>1.00897E-2</v>
       </c>
       <c r="F38">
-        <v>2.7156400000000001E-2</v>
+        <v>5.80086E-2</v>
       </c>
       <c r="G38">
-        <v>8.8628749999999992E-3</v>
+        <v>1.7665074999999999E-2</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -1498,22 +1498,22 @@
         <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C39">
-        <v>3.9589999999999997E-4</v>
+        <v>5.5180000000000008E-4</v>
       </c>
       <c r="D39">
-        <v>1.6077999999999999E-3</v>
+        <v>2.9497999999999998E-3</v>
       </c>
       <c r="E39">
-        <v>6.8584000000000006E-3</v>
+        <v>1.49906E-2</v>
       </c>
       <c r="F39">
-        <v>2.8140700000000001E-2</v>
+        <v>9.4110200000000005E-2</v>
       </c>
       <c r="G39">
-        <v>9.2507000000000006E-3</v>
+        <v>2.8150600000000001E-2</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -1521,68 +1521,68 @@
         <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C40">
-        <v>4.0220000000000002E-4</v>
+        <v>6.1600000000000001E-4</v>
       </c>
       <c r="D40">
-        <v>1.6431E-3</v>
+        <v>3.6438999999999998E-3</v>
       </c>
       <c r="E40">
-        <v>6.7273000000000003E-3</v>
+        <v>1.7185599999999999E-2</v>
       </c>
       <c r="F40">
-        <v>2.8264299999999999E-2</v>
+        <v>0.1127339</v>
       </c>
       <c r="G40">
-        <v>9.2592249999999994E-3</v>
+        <v>3.3544849999999987E-2</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C41">
-        <v>4.5800000000000002E-4</v>
+        <v>5.8639999999999994E-4</v>
       </c>
       <c r="D41">
-        <v>1.7478999999999999E-3</v>
+        <v>2.3481000000000001E-3</v>
       </c>
       <c r="E41">
-        <v>7.0264000000000004E-3</v>
+        <v>1.7777999999999999E-2</v>
       </c>
       <c r="F41">
-        <v>2.91854E-2</v>
+        <v>0.17943870000000001</v>
       </c>
       <c r="G41">
-        <v>9.6044249999999998E-3</v>
+        <v>5.00378E-2</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="C42">
-        <v>5.0350000000000004E-4</v>
+        <v>5.9750000000000005E-4</v>
       </c>
       <c r="D42">
-        <v>1.8573999999999999E-3</v>
+        <v>2.9697E-3</v>
       </c>
       <c r="E42">
-        <v>9.3608000000000007E-3</v>
+        <v>2.26366E-2</v>
       </c>
       <c r="F42">
-        <v>5.6195799999999997E-2</v>
+        <v>0.2182557</v>
       </c>
       <c r="G42">
-        <v>1.6979375000000001E-2</v>
+        <v>6.1114874999999999E-2</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -1590,45 +1590,45 @@
         <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C43">
-        <v>5.4239999999999996E-4</v>
+        <v>5.9229999999999992E-4</v>
       </c>
       <c r="D43">
-        <v>1.9406E-3</v>
+        <v>3.0588E-3</v>
       </c>
       <c r="E43">
-        <v>9.6349000000000001E-3</v>
+        <v>2.2923300000000001E-2</v>
       </c>
       <c r="F43">
-        <v>5.7832700000000001E-2</v>
+        <v>0.22423609999999999</v>
       </c>
       <c r="G43">
-        <v>1.748765E-2</v>
+        <v>6.2702625000000012E-2</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="C44">
-        <v>5.2340000000000004E-4</v>
+        <v>3.9219999999999999E-4</v>
       </c>
       <c r="D44">
-        <v>2.0385999999999998E-3</v>
+        <v>1.1211000000000001E-3</v>
       </c>
       <c r="E44">
-        <v>1.00897E-2</v>
+        <v>3.1881000000000001E-3</v>
       </c>
       <c r="F44">
-        <v>5.80086E-2</v>
+        <v>1.21168E-2</v>
       </c>
       <c r="G44">
-        <v>1.7665074999999999E-2</v>
+        <v>4.2045499999999996E-3</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -1636,22 +1636,22 @@
         <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C45">
-        <v>5.6349999999999998E-4</v>
+        <v>4.9890000000000004E-4</v>
       </c>
       <c r="D45">
-        <v>2.1251E-3</v>
+        <v>1.2258E-3</v>
       </c>
       <c r="E45">
-        <v>1.04951E-2</v>
+        <v>3.4207E-3</v>
       </c>
       <c r="F45">
-        <v>5.8513399999999993E-2</v>
+        <v>1.24092E-2</v>
       </c>
       <c r="G45">
-        <v>1.7924275E-2</v>
+        <v>4.38865E-3</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -1659,68 +1659,68 @@
         <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C46">
-        <v>6.5049999999999993E-4</v>
+        <v>3.8400000000000001E-4</v>
       </c>
       <c r="D46">
-        <v>3.2445E-3</v>
+        <v>1.0495000000000001E-3</v>
       </c>
       <c r="E46">
-        <v>1.5625900000000002E-2</v>
+        <v>3.3790999999999999E-3</v>
       </c>
       <c r="F46">
-        <v>9.0964900000000001E-2</v>
+        <v>1.2845799999999999E-2</v>
       </c>
       <c r="G46">
-        <v>2.7621449999999999E-2</v>
+        <v>4.4146000000000003E-3</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C47">
-        <v>6.9699999999999992E-4</v>
+        <v>3.7419999999999999E-4</v>
       </c>
       <c r="D47">
-        <v>3.5623E-3</v>
+        <v>1.1276000000000001E-3</v>
       </c>
       <c r="E47">
-        <v>1.5821499999999999E-2</v>
+        <v>3.0577E-3</v>
       </c>
       <c r="F47">
-        <v>9.1922600000000007E-2</v>
+        <v>1.34555E-2</v>
       </c>
       <c r="G47">
-        <v>2.8000850000000001E-2</v>
+        <v>4.5037499999999999E-3</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B48" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="C48">
-        <v>5.5180000000000008E-4</v>
+        <v>3.948E-4</v>
       </c>
       <c r="D48">
-        <v>2.9497999999999998E-3</v>
+        <v>1.1597999999999999E-3</v>
       </c>
       <c r="E48">
-        <v>1.49906E-2</v>
+        <v>3.127E-3</v>
       </c>
       <c r="F48">
-        <v>9.4110200000000005E-2</v>
+        <v>1.3702000000000001E-2</v>
       </c>
       <c r="G48">
-        <v>2.8150600000000001E-2</v>
+        <v>4.5959E-3</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -1728,398 +1728,402 @@
         <v>4</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C49">
-        <v>6.0940000000000007E-4</v>
+        <v>4.0709999999999997E-4</v>
       </c>
       <c r="D49">
-        <v>3.1451000000000001E-3</v>
+        <v>1.5669E-3</v>
       </c>
       <c r="E49">
-        <v>1.52473E-2</v>
+        <v>3.8625E-3</v>
       </c>
       <c r="F49">
-        <v>9.5136799999999994E-2</v>
+        <v>1.3352899999999999E-2</v>
       </c>
       <c r="G49">
-        <v>2.8534650000000002E-2</v>
+        <v>4.7973499999999997E-3</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="C50">
-        <v>5.6109999999999992E-4</v>
+        <v>5.4619999999999994E-4</v>
       </c>
       <c r="D50">
-        <v>3.5964999999999999E-3</v>
+        <v>1.3630999999999999E-3</v>
       </c>
       <c r="E50">
-        <v>1.69202E-2</v>
+        <v>3.3584000000000001E-3</v>
       </c>
       <c r="F50">
-        <v>0.1119938</v>
+        <v>1.54445E-2</v>
       </c>
       <c r="G50">
-        <v>3.3267900000000003E-2</v>
+        <v>5.1780500000000009E-3</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B51" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="C51">
-        <v>6.1600000000000001E-4</v>
+        <v>4.4729999999999998E-4</v>
       </c>
       <c r="D51">
-        <v>3.6438999999999998E-3</v>
+        <v>1.2553E-3</v>
       </c>
       <c r="E51">
-        <v>1.7185599999999999E-2</v>
+        <v>4.8726999999999989E-3</v>
       </c>
       <c r="F51">
-        <v>0.1127339</v>
+        <v>1.4400700000000001E-2</v>
       </c>
       <c r="G51">
-        <v>3.3544849999999987E-2</v>
+        <v>5.2440000000000004E-3</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C52">
-        <v>4.4000000000000002E-4</v>
+        <v>4.8509999999999992E-4</v>
       </c>
       <c r="D52">
-        <v>2.4426000000000001E-3</v>
+        <v>1.5872E-3</v>
       </c>
       <c r="E52">
-        <v>1.6678800000000001E-2</v>
+        <v>4.4700999999999994E-3</v>
       </c>
       <c r="F52">
-        <v>0.1170558</v>
+        <v>2.0338999999999999E-2</v>
       </c>
       <c r="G52">
-        <v>3.4154299999999999E-2</v>
+        <v>6.7203499999999999E-3</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B53" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="C53">
-        <v>4.7080000000000011E-4</v>
+        <v>4.3189999999999998E-4</v>
       </c>
       <c r="D53">
-        <v>2.542E-3</v>
+        <v>1.2756E-3</v>
       </c>
       <c r="E53">
-        <v>1.7043900000000001E-2</v>
+        <v>4.7615000000000001E-3</v>
       </c>
       <c r="F53">
-        <v>0.1167687</v>
+        <v>2.07093E-2</v>
       </c>
       <c r="G53">
-        <v>3.4206350000000003E-2</v>
+        <v>6.7945749999999989E-3</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B54" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="C54">
-        <v>5.7019999999999998E-4</v>
+        <v>4.5800000000000002E-4</v>
       </c>
       <c r="D54">
-        <v>2.8728999999999998E-3</v>
+        <v>1.7478999999999999E-3</v>
       </c>
       <c r="E54">
-        <v>1.8960399999999999E-2</v>
+        <v>7.0264000000000004E-3</v>
       </c>
       <c r="F54">
-        <v>0.12743009999999999</v>
+        <v>2.91854E-2</v>
       </c>
       <c r="G54">
-        <v>3.7458400000000003E-2</v>
+        <v>9.6044249999999998E-3</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B55" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="C55">
-        <v>5.9699999999999998E-4</v>
+        <v>5.6349999999999998E-4</v>
       </c>
       <c r="D55">
-        <v>2.9894000000000001E-3</v>
+        <v>2.1251E-3</v>
       </c>
       <c r="E55">
-        <v>1.92465E-2</v>
+        <v>1.04951E-2</v>
       </c>
       <c r="F55">
-        <v>0.12859809999999999</v>
+        <v>5.8513399999999993E-2</v>
       </c>
       <c r="G55">
-        <v>3.7857750000000003E-2</v>
+        <v>1.7924275E-2</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="C56">
-        <v>1.1236E-3</v>
+        <v>6.5049999999999993E-4</v>
       </c>
       <c r="D56">
-        <v>2.9991000000000002E-3</v>
+        <v>3.2445E-3</v>
       </c>
       <c r="E56">
-        <v>1.9829099999999999E-2</v>
+        <v>1.5625900000000002E-2</v>
       </c>
       <c r="F56">
-        <v>0.13352430000000001</v>
+        <v>9.0964900000000001E-2</v>
       </c>
       <c r="G56">
-        <v>3.9369024999999988E-2</v>
+        <v>2.7621449999999999E-2</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B57" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="C57">
-        <v>8.849000000000001E-4</v>
+        <v>6.0940000000000007E-4</v>
       </c>
       <c r="D57">
-        <v>3.1291000000000001E-3</v>
+        <v>3.1451000000000001E-3</v>
       </c>
       <c r="E57">
-        <v>2.0131699999999999E-2</v>
+        <v>1.52473E-2</v>
       </c>
       <c r="F57">
-        <v>0.1351106</v>
+        <v>9.5136799999999994E-2</v>
       </c>
       <c r="G57">
-        <v>3.9814074999999997E-2</v>
+        <v>2.8534650000000002E-2</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B58" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="C58">
-        <v>5.5060000000000005E-4</v>
+        <v>6.4740000000000002E-4</v>
       </c>
       <c r="D58">
-        <v>2.2628000000000001E-3</v>
+        <v>3.1318000000000001E-3</v>
       </c>
       <c r="E58">
-        <v>1.7635700000000001E-2</v>
+        <v>2.3762599999999998E-2</v>
       </c>
       <c r="F58">
-        <v>0.17792839999999999</v>
+        <v>0.2202404</v>
       </c>
       <c r="G58">
-        <v>4.9594375000000003E-2</v>
+        <v>6.1945550000000002E-2</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="C59">
-        <v>5.8639999999999994E-4</v>
+        <v>4.1919999999999989E-4</v>
       </c>
       <c r="D59">
-        <v>2.3481000000000001E-3</v>
+        <v>1.2643999999999999E-3</v>
       </c>
       <c r="E59">
-        <v>1.7777999999999999E-2</v>
+        <v>3.2044999999999999E-3</v>
       </c>
       <c r="F59">
-        <v>0.17943870000000001</v>
+        <v>1.3611E-2</v>
       </c>
       <c r="G59">
-        <v>5.00378E-2</v>
+        <v>4.6247750000000002E-3</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B60" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="C60">
-        <v>4.5609999999999997E-4</v>
+        <v>4.5389999999999997E-4</v>
       </c>
       <c r="D60">
-        <v>2.1824000000000001E-3</v>
+        <v>1.3718999999999999E-3</v>
       </c>
       <c r="E60">
-        <v>1.7498E-2</v>
+        <v>3.9084000000000002E-3</v>
       </c>
       <c r="F60">
-        <v>0.19102839999999999</v>
+        <v>1.35453E-2</v>
       </c>
       <c r="G60">
-        <v>5.2791224999999997E-2</v>
+        <v>4.8198750000000004E-3</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B61" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="C61">
-        <v>5.4569999999999998E-4</v>
+        <v>4.5800000000000002E-4</v>
       </c>
       <c r="D61">
-        <v>2.3205000000000001E-3</v>
+        <v>1.4208000000000001E-3</v>
       </c>
       <c r="E61">
-        <v>1.78566E-2</v>
+        <v>4.2367999999999998E-3</v>
       </c>
       <c r="F61">
-        <v>0.1916562</v>
+        <v>1.41496E-2</v>
       </c>
       <c r="G61">
-        <v>5.3094750000000003E-2</v>
+        <v>5.0663000000000001E-3</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B62" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="C62">
-        <v>5.9750000000000005E-4</v>
+        <v>1.0101000000000001E-3</v>
       </c>
       <c r="D62">
-        <v>2.9697E-3</v>
+        <v>1.4361000000000001E-3</v>
       </c>
       <c r="E62">
-        <v>2.26366E-2</v>
+        <v>3.5412999999999998E-3</v>
       </c>
       <c r="F62">
-        <v>0.2182557</v>
+        <v>1.4760799999999999E-2</v>
       </c>
       <c r="G62">
-        <v>6.1114874999999999E-2</v>
+        <v>5.1870749999999993E-3</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B63" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="C63">
-        <v>6.4740000000000002E-4</v>
+        <v>3.9300000000000001E-4</v>
       </c>
       <c r="D63">
-        <v>3.1318000000000001E-3</v>
+        <v>1.5165000000000001E-3</v>
       </c>
       <c r="E63">
-        <v>2.3762599999999998E-2</v>
+        <v>4.4889999999999999E-3</v>
       </c>
       <c r="F63">
-        <v>0.2202404</v>
+        <v>2.04254E-2</v>
       </c>
       <c r="G63">
-        <v>6.1945550000000002E-2</v>
+        <v>6.7059749999999986E-3</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B64" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C64">
-        <v>5.3239999999999993E-4</v>
+        <v>6.9699999999999992E-4</v>
       </c>
       <c r="D64">
-        <v>2.9072E-3</v>
+        <v>3.5623E-3</v>
       </c>
       <c r="E64">
-        <v>2.27762E-2</v>
+        <v>1.5821499999999999E-2</v>
       </c>
       <c r="F64">
-        <v>0.22364749999999989</v>
+        <v>9.1922600000000007E-2</v>
       </c>
       <c r="G64">
-        <v>6.2465824999999989E-2</v>
+        <v>2.8000850000000001E-2</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="C65">
-        <v>5.9229999999999992E-4</v>
+        <v>5.0319999999999998E-4</v>
       </c>
       <c r="D65">
-        <v>3.0588E-3</v>
+        <v>1.5150000000000001E-3</v>
       </c>
       <c r="E65">
-        <v>2.2923300000000001E-2</v>
+        <v>4.3627999999999991E-3</v>
       </c>
       <c r="F65">
-        <v>0.22423609999999999</v>
+        <v>1.43447E-2</v>
       </c>
       <c r="G65">
-        <v>6.2702625000000012E-2</v>
+        <v>5.1814249999999999E-3</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G65" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G65">
-      <sortCondition ref="G1:G65"/>
+      <sortCondition ref="A1:A65"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G8">
+    <sortCondition ref="A2:A8"/>
+    <sortCondition ref="B2:B8"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -8203,7 +8207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>

--- a/Excel/Hasil_Pengujian_Map_1_128_avg_length.xlsx
+++ b/Excel/Hasil_Pengujian_Map_1_128_avg_length.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SEMHAS\TA_Python_Server\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6FAABF-CAAD-4916-88C0-BF5BDBCB8F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB65A609-6697-4206-8578-0AE883CC25EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -264,6 +264,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -611,7 +612,7 @@
   <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F8"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -644,508 +645,508 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="C2">
-        <v>1.1236E-3</v>
+        <v>5.0319999999999998E-4</v>
       </c>
       <c r="D2">
-        <v>2.9991000000000002E-3</v>
+        <v>1.5150000000000001E-3</v>
       </c>
       <c r="E2">
-        <v>1.9829099999999999E-2</v>
+        <v>4.3627999999999991E-3</v>
       </c>
       <c r="F2">
-        <v>0.13352430000000001</v>
+        <v>1.43447E-2</v>
       </c>
       <c r="G2">
-        <v>3.9369024999999988E-2</v>
+        <v>5.1814249999999999E-3</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="C3">
-        <v>3.1100000000000002E-4</v>
+        <v>4.1919999999999989E-4</v>
       </c>
       <c r="D3">
-        <v>1.3225999999999999E-3</v>
+        <v>1.2643999999999999E-3</v>
       </c>
       <c r="E3">
-        <v>5.3155999999999993E-3</v>
+        <v>3.2044999999999999E-3</v>
       </c>
       <c r="F3">
-        <v>2.27393E-2</v>
+        <v>1.3611E-2</v>
       </c>
       <c r="G3">
-        <v>7.422124999999999E-3</v>
+        <v>4.6247750000000002E-3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="C4">
-        <v>4.5609999999999997E-4</v>
+        <v>4.5389999999999997E-4</v>
       </c>
       <c r="D4">
-        <v>2.1824000000000001E-3</v>
+        <v>1.3718999999999999E-3</v>
       </c>
       <c r="E4">
-        <v>1.7498E-2</v>
+        <v>3.9084000000000002E-3</v>
       </c>
       <c r="F4">
-        <v>0.19102839999999999</v>
+        <v>1.35453E-2</v>
       </c>
       <c r="G4">
-        <v>5.2791224999999997E-2</v>
+        <v>4.8198750000000004E-3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="C5">
-        <v>4.4000000000000002E-4</v>
+        <v>4.5800000000000002E-4</v>
       </c>
       <c r="D5">
-        <v>2.4426000000000001E-3</v>
+        <v>1.4208000000000001E-3</v>
       </c>
       <c r="E5">
-        <v>1.6678800000000001E-2</v>
+        <v>4.2367999999999998E-3</v>
       </c>
       <c r="F5">
-        <v>0.1170558</v>
+        <v>1.41496E-2</v>
       </c>
       <c r="G5">
-        <v>3.4154299999999999E-2</v>
+        <v>5.0663000000000001E-3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="C6">
-        <v>3.6890000000000002E-4</v>
+        <v>1.0101000000000001E-3</v>
       </c>
       <c r="D6">
-        <v>1.1643999999999999E-3</v>
+        <v>1.4361000000000001E-3</v>
       </c>
       <c r="E6">
-        <v>3.6279000000000012E-3</v>
+        <v>3.5412999999999998E-3</v>
       </c>
       <c r="F6">
-        <v>1.2914699999999999E-2</v>
+        <v>1.4760799999999999E-2</v>
       </c>
       <c r="G6">
-        <v>4.5189750000000006E-3</v>
+        <v>5.1870749999999993E-3</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="C7">
-        <v>8.849000000000001E-4</v>
+        <v>3.9300000000000001E-4</v>
       </c>
       <c r="D7">
-        <v>3.1291000000000001E-3</v>
+        <v>1.5165000000000001E-3</v>
       </c>
       <c r="E7">
-        <v>2.0131699999999999E-2</v>
+        <v>4.4889999999999999E-3</v>
       </c>
       <c r="F7">
-        <v>0.1351106</v>
+        <v>2.04254E-2</v>
       </c>
       <c r="G7">
-        <v>3.9814074999999997E-2</v>
+        <v>6.7059749999999986E-3</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="C8">
-        <v>5.7019999999999998E-4</v>
+        <v>6.9699999999999992E-4</v>
       </c>
       <c r="D8">
-        <v>2.8728999999999998E-3</v>
+        <v>3.5623E-3</v>
       </c>
       <c r="E8">
-        <v>1.8960399999999999E-2</v>
+        <v>1.5821499999999999E-2</v>
       </c>
       <c r="F8">
-        <v>0.12743009999999999</v>
+        <v>9.1922600000000007E-2</v>
       </c>
       <c r="G8">
-        <v>3.7458400000000003E-2</v>
+        <v>2.8000850000000001E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="C9">
-        <v>3.7369999999999998E-4</v>
+        <v>3.9219999999999999E-4</v>
       </c>
       <c r="D9">
-        <v>1.0280000000000001E-3</v>
+        <v>1.1211000000000001E-3</v>
       </c>
       <c r="E9">
-        <v>3.0896000000000001E-3</v>
+        <v>3.1881000000000001E-3</v>
       </c>
       <c r="F9">
-        <v>1.1626600000000001E-2</v>
+        <v>1.21168E-2</v>
       </c>
       <c r="G9">
-        <v>4.0294750000000002E-3</v>
+        <v>4.2045499999999996E-3</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="C10">
-        <v>3.5599999999999998E-4</v>
+        <v>4.9890000000000004E-4</v>
       </c>
       <c r="D10">
-        <v>1.0858E-3</v>
+        <v>1.2258E-3</v>
       </c>
       <c r="E10">
-        <v>3.2106000000000001E-3</v>
+        <v>3.4207E-3</v>
       </c>
       <c r="F10">
-        <v>1.15403E-2</v>
+        <v>1.24092E-2</v>
       </c>
       <c r="G10">
-        <v>4.0481749999999993E-3</v>
+        <v>4.38865E-3</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="C11">
-        <v>3.3960000000000001E-4</v>
+        <v>3.8400000000000001E-4</v>
       </c>
       <c r="D11">
-        <v>9.6450000000000008E-4</v>
+        <v>1.0495000000000001E-3</v>
       </c>
       <c r="E11">
-        <v>3.3205000000000001E-3</v>
+        <v>3.3790999999999999E-3</v>
       </c>
       <c r="F11">
-        <v>1.26613E-2</v>
+        <v>1.2845799999999999E-2</v>
       </c>
       <c r="G11">
-        <v>4.321475E-3</v>
+        <v>4.4146000000000003E-3</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="C12">
-        <v>4.1780000000000002E-4</v>
+        <v>3.7419999999999999E-4</v>
       </c>
       <c r="D12">
-        <v>1.2064000000000001E-3</v>
+        <v>1.1276000000000001E-3</v>
       </c>
       <c r="E12">
-        <v>3.6258000000000002E-3</v>
+        <v>3.0577E-3</v>
       </c>
       <c r="F12">
-        <v>1.31725E-2</v>
+        <v>1.34555E-2</v>
       </c>
       <c r="G12">
-        <v>4.6056249999999986E-3</v>
+        <v>4.5037499999999999E-3</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="C13">
-        <v>3.8640000000000001E-4</v>
+        <v>3.948E-4</v>
       </c>
       <c r="D13">
-        <v>1.1668E-3</v>
+        <v>1.1597999999999999E-3</v>
       </c>
       <c r="E13">
-        <v>3.8271999999999998E-3</v>
+        <v>3.127E-3</v>
       </c>
       <c r="F13">
-        <v>1.4337900000000001E-2</v>
+        <v>1.3702000000000001E-2</v>
       </c>
       <c r="G13">
-        <v>4.9295750000000003E-3</v>
+        <v>4.5959E-3</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="C14">
-        <v>3.5379999999999998E-4</v>
+        <v>4.0709999999999997E-4</v>
       </c>
       <c r="D14">
-        <v>1.4894999999999999E-3</v>
+        <v>1.5669E-3</v>
       </c>
       <c r="E14">
-        <v>5.8805000000000003E-3</v>
+        <v>3.8625E-3</v>
       </c>
       <c r="F14">
-        <v>2.40112E-2</v>
+        <v>1.3352899999999999E-2</v>
       </c>
       <c r="G14">
-        <v>7.9337499999999998E-3</v>
+        <v>4.7973499999999997E-3</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C15">
-        <v>3.589E-4</v>
+        <v>5.4619999999999994E-4</v>
       </c>
       <c r="D15">
-        <v>1.4187E-3</v>
+        <v>1.3630999999999999E-3</v>
       </c>
       <c r="E15">
-        <v>5.6354999999999999E-3</v>
+        <v>3.3584000000000001E-3</v>
       </c>
       <c r="F15">
-        <v>2.4407100000000001E-2</v>
+        <v>1.54445E-2</v>
       </c>
       <c r="G15">
-        <v>7.95505E-3</v>
+        <v>5.1780500000000009E-3</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="C16">
-        <v>3.433E-4</v>
+        <v>4.4729999999999998E-4</v>
       </c>
       <c r="D16">
-        <v>1.4916E-3</v>
+        <v>1.2553E-3</v>
       </c>
       <c r="E16">
-        <v>6.460200000000001E-3</v>
+        <v>4.8726999999999989E-3</v>
       </c>
       <c r="F16">
-        <v>2.7156400000000001E-2</v>
+        <v>1.4400700000000001E-2</v>
       </c>
       <c r="G16">
-        <v>8.8628749999999992E-3</v>
+        <v>5.2440000000000004E-3</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="C17">
-        <v>5.0350000000000004E-4</v>
+        <v>4.8509999999999992E-4</v>
       </c>
       <c r="D17">
-        <v>1.8573999999999999E-3</v>
+        <v>1.5872E-3</v>
       </c>
       <c r="E17">
-        <v>9.3608000000000007E-3</v>
+        <v>4.4700999999999994E-3</v>
       </c>
       <c r="F17">
-        <v>5.6195799999999997E-2</v>
+        <v>2.0338999999999999E-2</v>
       </c>
       <c r="G17">
-        <v>1.6979375000000001E-2</v>
+        <v>6.7203499999999999E-3</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="C18">
-        <v>5.6109999999999992E-4</v>
+        <v>4.3189999999999998E-4</v>
       </c>
       <c r="D18">
-        <v>3.5964999999999999E-3</v>
+        <v>1.2756E-3</v>
       </c>
       <c r="E18">
-        <v>1.69202E-2</v>
+        <v>4.7615000000000001E-3</v>
       </c>
       <c r="F18">
-        <v>0.1119938</v>
+        <v>2.07093E-2</v>
       </c>
       <c r="G18">
-        <v>3.3267900000000003E-2</v>
+        <v>6.7945749999999989E-3</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="C19">
-        <v>4.7080000000000011E-4</v>
+        <v>4.5800000000000002E-4</v>
       </c>
       <c r="D19">
-        <v>2.542E-3</v>
+        <v>1.7478999999999999E-3</v>
       </c>
       <c r="E19">
-        <v>1.7043900000000001E-2</v>
+        <v>7.0264000000000004E-3</v>
       </c>
       <c r="F19">
-        <v>0.1167687</v>
+        <v>2.91854E-2</v>
       </c>
       <c r="G19">
-        <v>3.4206350000000003E-2</v>
+        <v>9.6044249999999998E-3</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="C20">
-        <v>5.9699999999999998E-4</v>
+        <v>5.6349999999999998E-4</v>
       </c>
       <c r="D20">
-        <v>2.9894000000000001E-3</v>
+        <v>2.1251E-3</v>
       </c>
       <c r="E20">
-        <v>1.92465E-2</v>
+        <v>1.04951E-2</v>
       </c>
       <c r="F20">
-        <v>0.12859809999999999</v>
+        <v>5.8513399999999993E-2</v>
       </c>
       <c r="G20">
-        <v>3.7857750000000003E-2</v>
+        <v>1.7924275E-2</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="C21">
-        <v>5.5060000000000005E-4</v>
+        <v>6.5049999999999993E-4</v>
       </c>
       <c r="D21">
-        <v>2.2628000000000001E-3</v>
+        <v>3.2445E-3</v>
       </c>
       <c r="E21">
-        <v>1.7635700000000001E-2</v>
+        <v>1.5625900000000002E-2</v>
       </c>
       <c r="F21">
-        <v>0.17792839999999999</v>
+        <v>9.0964900000000001E-2</v>
       </c>
       <c r="G21">
-        <v>4.9594375000000003E-2</v>
+        <v>2.7621449999999999E-2</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="C22">
-        <v>5.4569999999999998E-4</v>
+        <v>6.0940000000000007E-4</v>
       </c>
       <c r="D22">
-        <v>2.3205000000000001E-3</v>
+        <v>3.1451000000000001E-3</v>
       </c>
       <c r="E22">
-        <v>1.78566E-2</v>
+        <v>1.52473E-2</v>
       </c>
       <c r="F22">
-        <v>0.1916562</v>
+        <v>9.5136799999999994E-2</v>
       </c>
       <c r="G22">
-        <v>5.3094750000000003E-2</v>
+        <v>2.8534650000000002E-2</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="C23">
-        <v>5.3239999999999993E-4</v>
+        <v>6.4740000000000002E-4</v>
       </c>
       <c r="D23">
-        <v>2.9072E-3</v>
+        <v>3.1318000000000001E-3</v>
       </c>
       <c r="E23">
-        <v>2.27762E-2</v>
+        <v>2.3762599999999998E-2</v>
       </c>
       <c r="F23">
-        <v>0.22364749999999989</v>
+        <v>0.2202404</v>
       </c>
       <c r="G23">
-        <v>6.2465824999999989E-2</v>
+        <v>6.1945550000000002E-2</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1610,514 +1611,515 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="C44">
-        <v>3.9219999999999999E-4</v>
+        <v>3.7369999999999998E-4</v>
       </c>
       <c r="D44">
-        <v>1.1211000000000001E-3</v>
+        <v>1.0280000000000001E-3</v>
       </c>
       <c r="E44">
-        <v>3.1881000000000001E-3</v>
+        <v>3.0896000000000001E-3</v>
       </c>
       <c r="F44">
-        <v>1.21168E-2</v>
+        <v>1.1626600000000001E-2</v>
       </c>
       <c r="G44">
-        <v>4.2045499999999996E-3</v>
+        <v>4.0294750000000002E-3</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="C45">
-        <v>4.9890000000000004E-4</v>
+        <v>3.5599999999999998E-4</v>
       </c>
       <c r="D45">
-        <v>1.2258E-3</v>
+        <v>1.0858E-3</v>
       </c>
       <c r="E45">
-        <v>3.4207E-3</v>
+        <v>3.2106000000000001E-3</v>
       </c>
       <c r="F45">
-        <v>1.24092E-2</v>
+        <v>1.15403E-2</v>
       </c>
       <c r="G45">
-        <v>4.38865E-3</v>
+        <v>4.0481749999999993E-3</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="C46">
-        <v>3.8400000000000001E-4</v>
+        <v>3.3960000000000001E-4</v>
       </c>
       <c r="D46">
-        <v>1.0495000000000001E-3</v>
+        <v>9.6450000000000008E-4</v>
       </c>
       <c r="E46">
-        <v>3.3790999999999999E-3</v>
+        <v>3.3205000000000001E-3</v>
       </c>
       <c r="F46">
-        <v>1.2845799999999999E-2</v>
+        <v>1.26613E-2</v>
       </c>
       <c r="G46">
-        <v>4.4146000000000003E-3</v>
+        <v>4.321475E-3</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="C47">
-        <v>3.7419999999999999E-4</v>
+        <v>4.1780000000000002E-4</v>
       </c>
       <c r="D47">
-        <v>1.1276000000000001E-3</v>
+        <v>1.2064000000000001E-3</v>
       </c>
       <c r="E47">
-        <v>3.0577E-3</v>
+        <v>3.6258000000000002E-3</v>
       </c>
       <c r="F47">
-        <v>1.34555E-2</v>
+        <v>1.31725E-2</v>
       </c>
       <c r="G47">
-        <v>4.5037499999999999E-3</v>
+        <v>4.6056249999999986E-3</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="C48">
-        <v>3.948E-4</v>
+        <v>3.8640000000000001E-4</v>
       </c>
       <c r="D48">
-        <v>1.1597999999999999E-3</v>
+        <v>1.1668E-3</v>
       </c>
       <c r="E48">
-        <v>3.127E-3</v>
+        <v>3.8271999999999998E-3</v>
       </c>
       <c r="F48">
-        <v>1.3702000000000001E-2</v>
+        <v>1.4337900000000001E-2</v>
       </c>
       <c r="G48">
-        <v>4.5959E-3</v>
+        <v>4.9295750000000003E-3</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="C49">
-        <v>4.0709999999999997E-4</v>
+        <v>3.5379999999999998E-4</v>
       </c>
       <c r="D49">
-        <v>1.5669E-3</v>
+        <v>1.4894999999999999E-3</v>
       </c>
       <c r="E49">
-        <v>3.8625E-3</v>
+        <v>5.8805000000000003E-3</v>
       </c>
       <c r="F49">
-        <v>1.3352899999999999E-2</v>
+        <v>2.40112E-2</v>
       </c>
       <c r="G49">
-        <v>4.7973499999999997E-3</v>
+        <v>7.9337499999999998E-3</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="C50">
-        <v>5.4619999999999994E-4</v>
+        <v>3.589E-4</v>
       </c>
       <c r="D50">
-        <v>1.3630999999999999E-3</v>
+        <v>1.4187E-3</v>
       </c>
       <c r="E50">
-        <v>3.3584000000000001E-3</v>
+        <v>5.6354999999999999E-3</v>
       </c>
       <c r="F50">
-        <v>1.54445E-2</v>
+        <v>2.4407100000000001E-2</v>
       </c>
       <c r="G50">
-        <v>5.1780500000000009E-3</v>
+        <v>7.95505E-3</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="C51">
-        <v>4.4729999999999998E-4</v>
+        <v>3.433E-4</v>
       </c>
       <c r="D51">
-        <v>1.2553E-3</v>
+        <v>1.4916E-3</v>
       </c>
       <c r="E51">
-        <v>4.8726999999999989E-3</v>
+        <v>6.460200000000001E-3</v>
       </c>
       <c r="F51">
-        <v>1.4400700000000001E-2</v>
+        <v>2.7156400000000001E-2</v>
       </c>
       <c r="G51">
-        <v>5.2440000000000004E-3</v>
+        <v>8.8628749999999992E-3</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="C52">
-        <v>4.8509999999999992E-4</v>
+        <v>5.0350000000000004E-4</v>
       </c>
       <c r="D52">
-        <v>1.5872E-3</v>
+        <v>1.8573999999999999E-3</v>
       </c>
       <c r="E52">
-        <v>4.4700999999999994E-3</v>
+        <v>9.3608000000000007E-3</v>
       </c>
       <c r="F52">
-        <v>2.0338999999999999E-2</v>
+        <v>5.6195799999999997E-2</v>
       </c>
       <c r="G52">
-        <v>6.7203499999999999E-3</v>
+        <v>1.6979375000000001E-2</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="C53">
-        <v>4.3189999999999998E-4</v>
+        <v>5.6109999999999992E-4</v>
       </c>
       <c r="D53">
-        <v>1.2756E-3</v>
+        <v>3.5964999999999999E-3</v>
       </c>
       <c r="E53">
-        <v>4.7615000000000001E-3</v>
+        <v>1.69202E-2</v>
       </c>
       <c r="F53">
-        <v>2.07093E-2</v>
+        <v>0.1119938</v>
       </c>
       <c r="G53">
-        <v>6.7945749999999989E-3</v>
+        <v>3.3267900000000003E-2</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="C54">
-        <v>4.5800000000000002E-4</v>
+        <v>4.7080000000000011E-4</v>
       </c>
       <c r="D54">
-        <v>1.7478999999999999E-3</v>
+        <v>2.542E-3</v>
       </c>
       <c r="E54">
-        <v>7.0264000000000004E-3</v>
+        <v>1.7043900000000001E-2</v>
       </c>
       <c r="F54">
-        <v>2.91854E-2</v>
+        <v>0.1167687</v>
       </c>
       <c r="G54">
-        <v>9.6044249999999998E-3</v>
+        <v>3.4206350000000003E-2</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="C55">
-        <v>5.6349999999999998E-4</v>
+        <v>5.9699999999999998E-4</v>
       </c>
       <c r="D55">
-        <v>2.1251E-3</v>
+        <v>2.9894000000000001E-3</v>
       </c>
       <c r="E55">
-        <v>1.04951E-2</v>
+        <v>1.92465E-2</v>
       </c>
       <c r="F55">
-        <v>5.8513399999999993E-2</v>
+        <v>0.12859809999999999</v>
       </c>
       <c r="G55">
-        <v>1.7924275E-2</v>
+        <v>3.7857750000000003E-2</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="C56">
-        <v>6.5049999999999993E-4</v>
+        <v>5.5060000000000005E-4</v>
       </c>
       <c r="D56">
-        <v>3.2445E-3</v>
+        <v>2.2628000000000001E-3</v>
       </c>
       <c r="E56">
-        <v>1.5625900000000002E-2</v>
+        <v>1.7635700000000001E-2</v>
       </c>
       <c r="F56">
-        <v>9.0964900000000001E-2</v>
+        <v>0.17792839999999999</v>
       </c>
       <c r="G56">
-        <v>2.7621449999999999E-2</v>
+        <v>4.9594375000000003E-2</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="C57">
-        <v>6.0940000000000007E-4</v>
+        <v>5.4569999999999998E-4</v>
       </c>
       <c r="D57">
-        <v>3.1451000000000001E-3</v>
+        <v>2.3205000000000001E-3</v>
       </c>
       <c r="E57">
-        <v>1.52473E-2</v>
+        <v>1.78566E-2</v>
       </c>
       <c r="F57">
-        <v>9.5136799999999994E-2</v>
+        <v>0.1916562</v>
       </c>
       <c r="G57">
-        <v>2.8534650000000002E-2</v>
+        <v>5.3094750000000003E-2</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="C58">
-        <v>6.4740000000000002E-4</v>
+        <v>5.3239999999999993E-4</v>
       </c>
       <c r="D58">
-        <v>3.1318000000000001E-3</v>
+        <v>2.9072E-3</v>
       </c>
       <c r="E58">
-        <v>2.3762599999999998E-2</v>
+        <v>2.27762E-2</v>
       </c>
       <c r="F58">
-        <v>0.2202404</v>
+        <v>0.22364749999999989</v>
       </c>
       <c r="G58">
-        <v>6.1945550000000002E-2</v>
+        <v>6.2465824999999989E-2</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B59" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="C59">
-        <v>4.1919999999999989E-4</v>
+        <v>3.6890000000000002E-4</v>
       </c>
       <c r="D59">
-        <v>1.2643999999999999E-3</v>
+        <v>1.1643999999999999E-3</v>
       </c>
       <c r="E59">
-        <v>3.2044999999999999E-3</v>
+        <v>3.6279000000000012E-3</v>
       </c>
       <c r="F59">
-        <v>1.3611E-2</v>
+        <v>1.2914699999999999E-2</v>
       </c>
       <c r="G59">
-        <v>4.6247750000000002E-3</v>
+        <v>4.5189750000000006E-3</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B60" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="C60">
-        <v>4.5389999999999997E-4</v>
+        <v>3.1100000000000002E-4</v>
       </c>
       <c r="D60">
-        <v>1.3718999999999999E-3</v>
+        <v>1.3225999999999999E-3</v>
       </c>
       <c r="E60">
-        <v>3.9084000000000002E-3</v>
+        <v>5.3155999999999993E-3</v>
       </c>
       <c r="F60">
-        <v>1.35453E-2</v>
+        <v>2.27393E-2</v>
       </c>
       <c r="G60">
-        <v>4.8198750000000004E-3</v>
+        <v>7.422124999999999E-3</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="C61">
-        <v>4.5800000000000002E-4</v>
+        <v>4.4000000000000002E-4</v>
       </c>
       <c r="D61">
-        <v>1.4208000000000001E-3</v>
+        <v>2.4426000000000001E-3</v>
       </c>
       <c r="E61">
-        <v>4.2367999999999998E-3</v>
+        <v>1.6678800000000001E-2</v>
       </c>
       <c r="F61">
-        <v>1.41496E-2</v>
+        <v>0.1170558</v>
       </c>
       <c r="G61">
-        <v>5.0663000000000001E-3</v>
+        <v>3.4154299999999999E-2</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B62" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="C62">
-        <v>1.0101000000000001E-3</v>
+        <v>5.7019999999999998E-4</v>
       </c>
       <c r="D62">
-        <v>1.4361000000000001E-3</v>
+        <v>2.8728999999999998E-3</v>
       </c>
       <c r="E62">
-        <v>3.5412999999999998E-3</v>
+        <v>1.8960399999999999E-2</v>
       </c>
       <c r="F62">
-        <v>1.4760799999999999E-2</v>
+        <v>0.12743009999999999</v>
       </c>
       <c r="G62">
-        <v>5.1870749999999993E-3</v>
+        <v>3.7458400000000003E-2</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B63" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="C63">
-        <v>3.9300000000000001E-4</v>
+        <v>8.849000000000001E-4</v>
       </c>
       <c r="D63">
-        <v>1.5165000000000001E-3</v>
+        <v>3.1291000000000001E-3</v>
       </c>
       <c r="E63">
-        <v>4.4889999999999999E-3</v>
+        <v>2.0131699999999999E-2</v>
       </c>
       <c r="F63">
-        <v>2.04254E-2</v>
+        <v>0.1351106</v>
       </c>
       <c r="G63">
-        <v>6.7059749999999986E-3</v>
+        <v>3.9814074999999997E-2</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B64" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="C64">
-        <v>6.9699999999999992E-4</v>
+        <v>4.5609999999999997E-4</v>
       </c>
       <c r="D64">
-        <v>3.5623E-3</v>
+        <v>2.1824000000000001E-3</v>
       </c>
       <c r="E64">
-        <v>1.5821499999999999E-2</v>
+        <v>1.7498E-2</v>
       </c>
       <c r="F64">
-        <v>9.1922600000000007E-2</v>
+        <v>0.19102839999999999</v>
       </c>
       <c r="G64">
-        <v>2.8000850000000001E-2</v>
+        <v>5.2791224999999997E-2</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B65" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="C65">
-        <v>5.0319999999999998E-4</v>
+        <v>1.1236E-3</v>
       </c>
       <c r="D65">
-        <v>1.5150000000000001E-3</v>
+        <v>2.9991000000000002E-3</v>
       </c>
       <c r="E65">
-        <v>4.3627999999999991E-3</v>
+        <v>1.9829099999999999E-2</v>
       </c>
       <c r="F65">
-        <v>1.43447E-2</v>
+        <v>0.13352430000000001</v>
       </c>
       <c r="G65">
-        <v>5.1814249999999999E-3</v>
+        <v>3.9369024999999988E-2</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G65" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G65">
-      <sortCondition ref="A1:A65"/>
+      <sortCondition descending="1" ref="A2:A65"/>
+      <sortCondition ref="G2:G65"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G8">
